--- a/ks-krediti-fulm.xlsx
+++ b/ks-krediti-fulm.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D47CFF3-43E4-48A3-89F8-DDDBA9876A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16AF220-2FFB-4FC2-BCCA-887B1E9853E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="42">
   <si>
     <t>Примања во (плата, пензија, итн.)</t>
   </si>
@@ -655,907 +655,850 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" style="2" customWidth="1"/>
-    <col min="2" max="2" width="47.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="15" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="96.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="38.44140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.88671875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="38.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17" style="15" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="96.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.44140625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="14">
         <v>300000</v>
       </c>
-      <c r="D2" s="11">
+      <c r="H2" s="11">
         <v>84</v>
       </c>
-      <c r="E2" s="16">
+      <c r="I2" s="16">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F2" s="16">
+      <c r="J2" s="16">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="14">
         <v>1500000</v>
       </c>
-      <c r="D3" s="11">
+      <c r="H3" s="11">
         <v>120</v>
       </c>
-      <c r="E3" s="16">
+      <c r="I3" s="16">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F3" s="20">
+      <c r="J3" s="20">
         <v>7.0900000000000005E-2</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="M3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="14">
         <v>1500000</v>
       </c>
-      <c r="D4" s="11">
+      <c r="H4" s="11">
         <v>120</v>
       </c>
-      <c r="E4" s="16">
+      <c r="I4" s="16">
         <v>4.7E-2</v>
       </c>
-      <c r="F4" s="20">
+      <c r="J4" s="20">
         <v>7.1499999999999994E-2</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="M4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="14">
         <v>80000</v>
       </c>
-      <c r="D5" s="11">
+      <c r="H5" s="11">
         <v>240</v>
       </c>
-      <c r="E5" s="16">
+      <c r="I5" s="16">
         <v>0.04</v>
       </c>
-      <c r="F5" s="20">
+      <c r="J5" s="20">
         <v>9.7600000000000006E-2</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="L5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="M5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="14">
         <v>300000</v>
       </c>
-      <c r="D6" s="11">
+      <c r="H6" s="11">
         <v>240</v>
       </c>
-      <c r="E6" s="18">
+      <c r="I6" s="18">
         <v>1.9</v>
       </c>
-      <c r="F6" s="20">
+      <c r="J6" s="20">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="L6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="M6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="14">
         <v>18450000</v>
       </c>
-      <c r="D7" s="11">
+      <c r="H7" s="11">
         <v>240</v>
       </c>
-      <c r="E7" s="18">
+      <c r="I7" s="18">
         <v>1.9</v>
       </c>
-      <c r="F7" s="20">
+      <c r="J7" s="20">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="L7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="M7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="14">
         <v>80000</v>
       </c>
-      <c r="D8" s="11">
+      <c r="H8" s="11">
         <v>240</v>
       </c>
-      <c r="E8" s="16">
+      <c r="I8" s="16">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F8" s="20">
+      <c r="J8" s="20">
         <v>8.7300000000000003E-2</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="L8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="M8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="14">
         <v>300000</v>
       </c>
-      <c r="D9" s="11">
+      <c r="H9" s="11">
         <v>360</v>
       </c>
-      <c r="E9" s="16">
+      <c r="I9" s="16">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F9" s="20">
+      <c r="J9" s="20">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="L9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="M9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="14">
         <v>300000</v>
       </c>
-      <c r="D10" s="11">
+      <c r="H10" s="11">
         <v>360</v>
       </c>
-      <c r="E10" s="16">
+      <c r="I10" s="16">
         <v>0.03</v>
       </c>
-      <c r="F10" s="20">
+      <c r="J10" s="20">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="L10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="M10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="14">
         <v>200000</v>
       </c>
-      <c r="D11" s="11">
+      <c r="H11" s="11">
         <v>240</v>
       </c>
-      <c r="E11" s="16">
+      <c r="I11" s="16">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F11" s="20">
+      <c r="J11" s="20">
         <v>6.3799999999999996E-2</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="L11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="M11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="14">
         <v>100000</v>
       </c>
-      <c r="D12" s="11">
+      <c r="H12" s="11">
         <v>240</v>
       </c>
-      <c r="E12" s="16">
+      <c r="I12" s="16">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F12" s="20">
+      <c r="J12" s="20">
         <v>7.85E-2</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="L12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="M12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="14"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="L13" s="12"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
+      <c r="L14" s="12"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="L15" s="12"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="14"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="L16" s="12"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="14"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="L17" s="12"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="14"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="14"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="14"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="14"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
+      <c r="L22" s="12"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="14"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
+      <c r="L23" s="12"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-    </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="14"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
+      <c r="L24" s="12"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-    </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="14"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
+      <c r="L25" s="12"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="14"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
+      <c r="L26" s="12"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-    </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="14"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
+      <c r="L27" s="12"/>
       <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-    </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="14"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
+      <c r="L28" s="12"/>
       <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-    </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="14"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
+      <c r="L29" s="12"/>
       <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-    </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
-      <c r="C30" s="14"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
+      <c r="L30" s="12"/>
       <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-    </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="14"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
+      <c r="L31" s="12"/>
       <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-    </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
-      <c r="C32" s="14"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
+      <c r="L32" s="12"/>
       <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-    </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
-      <c r="C33" s="14"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
+      <c r="L33" s="12"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I4" r:id="rId2" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I5" r:id="rId3" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I6" r:id="rId4" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I8" r:id="rId5" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I9" r:id="rId6" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I10" r:id="rId7" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I7" r:id="rId8" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I11" r:id="rId9" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I12" r:id="rId10" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I3" r:id="rId11" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M2" r:id="rId1" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M4" r:id="rId2" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M5" r:id="rId3" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M6" r:id="rId4" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M8" r:id="rId5" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M9" r:id="rId6" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M10" r:id="rId7" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M7" r:id="rId8" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="M11" r:id="rId9" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="M12" r:id="rId10" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="M3" r:id="rId11" location="Cenovni_uslovi" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
